--- a/analysis/species_data/species_list_adding.xlsx
+++ b/analysis/species_data/species_list_adding.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\BBSsize\analysis\species_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C284BD73-AA70-4BA2-9D30-DFE26FD565D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC661AAD-3C4A-46AD-BB16-874585D626F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="270" windowWidth="13500" windowHeight="16845"/>
+    <workbookView xWindow="13185" yWindow="270" windowWidth="17340" windowHeight="16845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="2327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2364">
   <si>
     <t>species_id</t>
   </si>
@@ -7001,12 +7001,123 @@
   </si>
   <si>
     <t>Values in table for NY. For KS, m 42.8/3.8, f 41.6/2.7</t>
+  </si>
+  <si>
+    <t>Values in table for NE. For Morocco, 16.2,15.8 m,f</t>
+  </si>
+  <si>
+    <t>Values in table for NY. For GA, 10.6/0.7, 9.4/1.1. For Western USA, 11.7 mean</t>
+  </si>
+  <si>
+    <t>Values for Carduelis tristis</t>
+  </si>
+  <si>
+    <t>Values for Circus cyaneus hudsonius from NJ</t>
+  </si>
+  <si>
+    <t>Values for Calcarius mccownii</t>
+  </si>
+  <si>
+    <t>Values for Pipilo maculatus. P maculatus falcifer: 20.9, 2.1/38,2.2</t>
+  </si>
+  <si>
+    <t>Values from Manitoba. For CA: F mean 17, sd .8. For P sand oblitus from Minnestoa, male mean 18/1.4sd, fm 17.1/1.6sd</t>
+  </si>
+  <si>
+    <t>Values from Arizona. For A. sav flordanus from Florida, 17.2 and 18.4. For A sav pratensis from CT, mean 17.9</t>
+  </si>
+  <si>
+    <t>Value from AZ. From Saskatchewan, 18.9/17.8. All values for Ammodramus bairdii</t>
+  </si>
+  <si>
+    <t>More values for sub sp from many location</t>
+  </si>
+  <si>
+    <t>Values for Dendroica petechia from PA</t>
+  </si>
+  <si>
+    <t>Values for FL. For Alberta, CA, 55.8/0.3</t>
+  </si>
+  <si>
+    <t>Values for CA. For Alaska, 1097 sd 127</t>
+  </si>
+  <si>
+    <t>Values for Carpodacus mexicanus</t>
+  </si>
+  <si>
+    <t>Values for Carduelis pinus</t>
+  </si>
+  <si>
+    <t>Values for Vermivora celata from CA</t>
+  </si>
+  <si>
+    <t>Values for PA. For Indiana, mean 27.7. For GA, mean 21.6. All values for Picoides pubescens</t>
+  </si>
+  <si>
+    <t>Values for AZ</t>
+  </si>
+  <si>
+    <t>Values from Wisconsin. For A gentilis apache, in Arizona 704,32.7/986, 51.9 m/f mean,sd</t>
+  </si>
+  <si>
+    <t>Value from PA. For Montana, 79,4.8/67.5,4.7. All values from Picoides villosus</t>
+  </si>
+  <si>
+    <t>Values from PA. For Washington, 305/270 m/f</t>
+  </si>
+  <si>
+    <t>Value for Ammodramus lecontei</t>
+  </si>
+  <si>
+    <t>Values for Dendroica coronata. For D coronata audoboni, 12.3, 0.9/11.9,0.9</t>
+  </si>
+  <si>
+    <t>Values for Stellula calliope</t>
+  </si>
+  <si>
+    <t>Values for Poecile hudsonica</t>
+  </si>
+  <si>
+    <t>Values for I naevius naevius. For I naevius meruloides, 73.1, 4.9/78.4, 5.1</t>
+  </si>
+  <si>
+    <t>Value for Carpodacus purpureus</t>
+  </si>
+  <si>
+    <t>Value for Z leucophrys leucophrys. Other subsp from other locations</t>
+  </si>
+  <si>
+    <t>Value for Seiurus noveboracensis</t>
+  </si>
+  <si>
+    <t>Value for Vermivora peregrina</t>
+  </si>
+  <si>
+    <t>Value for Oporornis tolmiei</t>
+  </si>
+  <si>
+    <t>Values for Dendroica townsendi</t>
+  </si>
+  <si>
+    <t>Values for Dendroica tigrina</t>
+  </si>
+  <si>
+    <t>Values for PA. For CA, 7, .5/6.7, .3. All values for Wilsonia pusilla</t>
+  </si>
+  <si>
+    <t>Second entry</t>
+  </si>
+  <si>
+    <t>Value for Sphyrapicus varius varius</t>
+  </si>
+  <si>
+    <t>Values for ND, US. For Ontario, mean 16.8. All value for Ammodramus nelsoni, Nelson's Sharp-tailed Sparrow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7840,15 +7951,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
+      <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8159,6 +8273,21 @@
       <c r="I8" t="s">
         <v>56</v>
       </c>
+      <c r="J8">
+        <v>359</v>
+      </c>
+      <c r="K8">
+        <v>515</v>
+      </c>
+      <c r="L8">
+        <v>39.9</v>
+      </c>
+      <c r="M8">
+        <v>54.6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2330</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8335,10 +8464,10 @@
         <v>111</v>
       </c>
       <c r="K13">
+        <v>120</v>
+      </c>
+      <c r="L13">
         <v>9.3000000000000007</v>
-      </c>
-      <c r="L13">
-        <v>120</v>
       </c>
       <c r="M13">
         <v>9.1999999999999993</v>
@@ -8457,7 +8586,7 @@
       <c r="J16">
         <v>39.6</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2.8</v>
       </c>
     </row>
@@ -8536,7 +8665,7 @@
       <c r="J18">
         <v>13.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.8</v>
       </c>
     </row>
@@ -8571,7 +8700,7 @@
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.8</v>
       </c>
     </row>
@@ -8606,7 +8735,7 @@
       <c r="J20">
         <v>20.9</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.5</v>
       </c>
     </row>
@@ -8641,7 +8770,7 @@
       <c r="J21">
         <v>13.5</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.4</v>
       </c>
     </row>
@@ -8820,10 +8949,10 @@
         <v>13</v>
       </c>
       <c r="K26">
+        <v>13.9</v>
+      </c>
+      <c r="L26">
         <v>0.8</v>
-      </c>
-      <c r="L26">
-        <v>13.9</v>
       </c>
       <c r="M26">
         <v>1.3</v>
@@ -8857,6 +8986,12 @@
       <c r="I27" t="s">
         <v>175</v>
       </c>
+      <c r="J27">
+        <v>21.6</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -8886,6 +9021,21 @@
       <c r="I28" t="s">
         <v>181</v>
       </c>
+      <c r="J28">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K28">
+        <v>19.2</v>
+      </c>
+      <c r="L28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2327</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -8915,6 +9065,12 @@
       <c r="I29" t="s">
         <v>188</v>
       </c>
+      <c r="J29">
+        <v>16.5</v>
+      </c>
+      <c r="L29">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -8944,6 +9100,18 @@
       <c r="I30" t="s">
         <v>194</v>
       </c>
+      <c r="J30">
+        <v>10.8</v>
+      </c>
+      <c r="K30">
+        <v>11.1</v>
+      </c>
+      <c r="L30">
+        <v>0.6</v>
+      </c>
+      <c r="M30">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -8973,6 +9141,21 @@
       <c r="I31" t="s">
         <v>200</v>
       </c>
+      <c r="J31">
+        <v>11.9</v>
+      </c>
+      <c r="K31">
+        <v>0.7</v>
+      </c>
+      <c r="L31">
+        <v>10.6</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2328</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -9002,8 +9185,14 @@
       <c r="I32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>78.5</v>
+      </c>
+      <c r="L32">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1169</v>
       </c>
@@ -9031,8 +9220,14 @@
       <c r="I33" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="L33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1172</v>
       </c>
@@ -9060,8 +9255,11 @@
       <c r="I34" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1185</v>
       </c>
@@ -9089,8 +9287,20 @@
       <c r="I35" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>87.6</v>
+      </c>
+      <c r="K35">
+        <v>84.4</v>
+      </c>
+      <c r="L35">
+        <v>4.8</v>
+      </c>
+      <c r="M35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1198</v>
       </c>
@@ -9118,8 +9328,20 @@
       <c r="I36" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>28</v>
+      </c>
+      <c r="K36">
+        <v>27.4</v>
+      </c>
+      <c r="L36">
+        <v>1.6</v>
+      </c>
+      <c r="M36">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1209</v>
       </c>
@@ -9147,8 +9369,14 @@
       <c r="I37" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>25.5</v>
+      </c>
+      <c r="L37">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1249</v>
       </c>
@@ -9176,8 +9404,23 @@
       <c r="I38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>13.1</v>
+      </c>
+      <c r="K38">
+        <v>12.5</v>
+      </c>
+      <c r="L38">
+        <v>0.9</v>
+      </c>
+      <c r="M38">
+        <v>0.7</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1251</v>
       </c>
@@ -9205,8 +9448,11 @@
       <c r="I39" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1253</v>
       </c>
@@ -9234,8 +9480,17 @@
       <c r="I40" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>26.7</v>
+      </c>
+      <c r="K40">
+        <v>24.7</v>
+      </c>
+      <c r="N40" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1275</v>
       </c>
@@ -9263,8 +9518,17 @@
       <c r="I41" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="L41">
+        <v>3.6</v>
+      </c>
+      <c r="N41" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1298</v>
       </c>
@@ -9292,8 +9556,14 @@
       <c r="I42" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>12.2</v>
+      </c>
+      <c r="L42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1299</v>
       </c>
@@ -9321,8 +9591,14 @@
       <c r="I43" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>11.2</v>
+      </c>
+      <c r="L43">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1300</v>
       </c>
@@ -9350,8 +9626,14 @@
       <c r="I44" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>10.9</v>
+      </c>
+      <c r="L44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1304</v>
       </c>
@@ -9379,8 +9661,14 @@
       <c r="I45" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>26.5</v>
+      </c>
+      <c r="K45">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1305</v>
       </c>
@@ -9408,8 +9696,14 @@
       <c r="I46" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>29</v>
+      </c>
+      <c r="L46">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1311</v>
       </c>
@@ -9437,8 +9731,14 @@
       <c r="I47" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>37.6</v>
+      </c>
+      <c r="L47">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1312</v>
       </c>
@@ -9466,8 +9766,23 @@
       <c r="I48" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>20.6</v>
+      </c>
+      <c r="K48">
+        <v>19.5</v>
+      </c>
+      <c r="L48">
+        <v>1.4</v>
+      </c>
+      <c r="M48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N48" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1313</v>
       </c>
@@ -9495,8 +9810,17 @@
       <c r="I49" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>2.8</v>
+      </c>
+      <c r="N49" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1314</v>
       </c>
@@ -9524,8 +9848,17 @@
       <c r="I50" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>17.5</v>
+      </c>
+      <c r="L50">
+        <v>1.5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1322</v>
       </c>
@@ -9553,8 +9886,23 @@
       <c r="I51" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>20.5</v>
+      </c>
+      <c r="K51">
+        <v>19.5</v>
+      </c>
+      <c r="L51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51">
+        <v>1.3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1342</v>
       </c>
@@ -9582,8 +9930,17 @@
       <c r="I52" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>79.7</v>
+      </c>
+      <c r="K52">
+        <v>49.3</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1343</v>
       </c>
@@ -9611,8 +9968,20 @@
       <c r="I53" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>33.9</v>
+      </c>
+      <c r="K53">
+        <v>29.2</v>
+      </c>
+      <c r="L53">
+        <v>2.1</v>
+      </c>
+      <c r="M53">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1345</v>
       </c>
@@ -9640,8 +10009,14 @@
       <c r="I54" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1364</v>
       </c>
@@ -9669,8 +10044,20 @@
       <c r="I55" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>22.9</v>
+      </c>
+      <c r="K55">
+        <v>21.8</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1369</v>
       </c>
@@ -9698,8 +10085,20 @@
       <c r="I56" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>65.3</v>
+      </c>
+      <c r="K56">
+        <v>39.5</v>
+      </c>
+      <c r="L56">
+        <v>3.6</v>
+      </c>
+      <c r="M56">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1374</v>
       </c>
@@ -9727,8 +10126,20 @@
       <c r="I57" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>48.7</v>
+      </c>
+      <c r="K57">
+        <v>38.1</v>
+      </c>
+      <c r="L57">
+        <v>2.6</v>
+      </c>
+      <c r="M57">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1379</v>
       </c>
@@ -9756,8 +10167,20 @@
       <c r="I58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>67.2</v>
+      </c>
+      <c r="K58">
+        <v>58.1</v>
+      </c>
+      <c r="L58">
+        <v>4.2</v>
+      </c>
+      <c r="M58">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1380</v>
       </c>
@@ -9785,8 +10208,20 @@
       <c r="I59" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>92.2</v>
+      </c>
+      <c r="L59">
+        <v>7.1</v>
+      </c>
+      <c r="M59">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1384</v>
       </c>
@@ -9814,8 +10249,14 @@
       <c r="I60" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>18.8</v>
+      </c>
+      <c r="L60">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1410</v>
       </c>
@@ -9843,8 +10284,20 @@
       <c r="I61" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K61">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L61">
+        <v>0.6</v>
+      </c>
+      <c r="M61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1422</v>
       </c>
@@ -9872,8 +10325,23 @@
       <c r="I62" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>9.6</v>
+      </c>
+      <c r="K62">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L62">
+        <v>0.5</v>
+      </c>
+      <c r="M62">
+        <v>0.5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>167</v>
       </c>
@@ -9901,8 +10369,14 @@
       <c r="I63" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>50.9</v>
+      </c>
+      <c r="K63">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>617</v>
       </c>
@@ -9930,8 +10404,14 @@
       <c r="I64" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1403</v>
+      </c>
+      <c r="K64">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>941</v>
       </c>
@@ -9959,8 +10439,17 @@
       <c r="I65" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>47.7</v>
+      </c>
+      <c r="K65">
+        <v>3.5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1009</v>
       </c>
@@ -9988,8 +10477,17 @@
       <c r="I66" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>785</v>
+      </c>
+      <c r="K66">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="N66" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1025</v>
       </c>
@@ -10017,8 +10515,14 @@
       <c r="I67" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>15.9</v>
+      </c>
+      <c r="L67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1034</v>
       </c>
@@ -10046,8 +10550,14 @@
       <c r="I68" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>10.8</v>
+      </c>
+      <c r="L68">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1053</v>
       </c>
@@ -10075,8 +10585,14 @@
       <c r="I69" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L69">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1135</v>
       </c>
@@ -10104,8 +10620,14 @@
       <c r="I70" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>29.6</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1188</v>
       </c>
@@ -10133,8 +10655,20 @@
       <c r="I71" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>30.6</v>
+      </c>
+      <c r="K71">
+        <v>32.6</v>
+      </c>
+      <c r="L71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M71">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1228</v>
       </c>
@@ -10162,8 +10696,17 @@
       <c r="I72" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>21.4</v>
+      </c>
+      <c r="L72">
+        <v>1.3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1244</v>
       </c>
@@ -10191,8 +10734,14 @@
       <c r="I73" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>12.7</v>
+      </c>
+      <c r="N73" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1341</v>
       </c>
@@ -10220,8 +10769,20 @@
       <c r="I74" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>24.4</v>
+      </c>
+      <c r="K74">
+        <v>25.4</v>
+      </c>
+      <c r="L74">
+        <v>0.9</v>
+      </c>
+      <c r="M74">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1397</v>
       </c>
@@ -10249,8 +10810,17 @@
       <c r="I75" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>0.8</v>
+      </c>
+      <c r="N75" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1469</v>
       </c>
@@ -10278,8 +10848,20 @@
       <c r="I76" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>46.1</v>
+      </c>
+      <c r="K76">
+        <v>48.2</v>
+      </c>
+      <c r="L76">
+        <v>3.3</v>
+      </c>
+      <c r="M76">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1476</v>
       </c>
@@ -10307,8 +10889,14 @@
       <c r="I77" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>624</v>
       </c>
@@ -10336,8 +10924,20 @@
       <c r="I78" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>3900</v>
+      </c>
+      <c r="K78">
+        <v>4627</v>
+      </c>
+      <c r="L78">
+        <v>335</v>
+      </c>
+      <c r="M78">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>746</v>
       </c>
@@ -10365,8 +10965,23 @@
       <c r="I79" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>27.5</v>
+      </c>
+      <c r="K79">
+        <v>25.9</v>
+      </c>
+      <c r="L79">
+        <v>0.9</v>
+      </c>
+      <c r="M79">
+        <v>1.7</v>
+      </c>
+      <c r="N79" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1147</v>
       </c>
@@ -10394,8 +11009,14 @@
       <c r="I80" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>30.3</v>
+      </c>
+      <c r="L80">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1237</v>
       </c>
@@ -10423,8 +11044,17 @@
       <c r="I81" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>36.4</v>
+      </c>
+      <c r="L81">
+        <v>3.7</v>
+      </c>
+      <c r="N81" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1456</v>
       </c>
@@ -10452,8 +11082,11 @@
       <c r="I82" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>631</v>
       </c>
@@ -10481,8 +11114,20 @@
       <c r="I83" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>103</v>
+      </c>
+      <c r="K83">
+        <v>174</v>
+      </c>
+      <c r="L83">
+        <v>6.4</v>
+      </c>
+      <c r="M83">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>632</v>
       </c>
@@ -10510,8 +11155,20 @@
       <c r="I84" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>349</v>
+      </c>
+      <c r="K84">
+        <v>529</v>
+      </c>
+      <c r="L84">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M84">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>634</v>
       </c>
@@ -10539,8 +11196,23 @@
       <c r="I85" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>912</v>
+      </c>
+      <c r="K85">
+        <v>1137</v>
+      </c>
+      <c r="L85">
+        <v>14.9</v>
+      </c>
+      <c r="M85">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N85" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>637</v>
       </c>
@@ -10568,8 +11240,14 @@
       <c r="I86" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>4130</v>
+      </c>
+      <c r="K86">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>750</v>
       </c>
@@ -10597,8 +11275,23 @@
       <c r="I87" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>70</v>
+      </c>
+      <c r="K87">
+        <v>62.5</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>764</v>
       </c>
@@ -10626,8 +11319,17 @@
       <c r="I88" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>308</v>
+      </c>
+      <c r="K88">
+        <v>266</v>
+      </c>
+      <c r="N88" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>921</v>
       </c>
@@ -10655,8 +11357,20 @@
       <c r="I89" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>13.1</v>
+      </c>
+      <c r="K89">
+        <v>13.7</v>
+      </c>
+      <c r="L89">
+        <v>1.4</v>
+      </c>
+      <c r="M89">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>937</v>
       </c>
@@ -10684,8 +11398,14 @@
       <c r="I90" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>19.7</v>
+      </c>
+      <c r="K90">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1148</v>
       </c>
@@ -10713,8 +11433,14 @@
       <c r="I91" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>30.1</v>
+      </c>
+      <c r="L91">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1316</v>
       </c>
@@ -10742,8 +11468,17 @@
       <c r="I92" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>1.2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1430</v>
       </c>
@@ -10771,8 +11506,23 @@
       <c r="I93" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>12.2</v>
+      </c>
+      <c r="K93">
+        <v>11.4</v>
+      </c>
+      <c r="L93">
+        <v>0.7</v>
+      </c>
+      <c r="M93">
+        <v>0.6</v>
+      </c>
+      <c r="N93" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>920</v>
       </c>
@@ -10800,8 +11550,14 @@
       <c r="I94" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>12.7</v>
+      </c>
+      <c r="L94">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1013</v>
       </c>
@@ -10829,8 +11585,20 @@
       <c r="I95" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>53.5</v>
+      </c>
+      <c r="K95">
+        <v>54.1</v>
+      </c>
+      <c r="L95">
+        <v>3.8</v>
+      </c>
+      <c r="M95">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -10858,8 +11626,17 @@
       <c r="I96" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>566</v>
+      </c>
+      <c r="K96">
+        <v>498</v>
+      </c>
+      <c r="L96">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>113</v>
       </c>
@@ -10887,8 +11664,20 @@
       <c r="I97" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>1212</v>
+      </c>
+      <c r="K97">
+        <v>905</v>
+      </c>
+      <c r="L97">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="M97">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>240</v>
       </c>
@@ -10916,8 +11705,11 @@
       <c r="I98" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>244</v>
       </c>
@@ -10945,8 +11737,17 @@
       <c r="I99" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>2.5</v>
+      </c>
+      <c r="K99">
+        <v>2.8</v>
+      </c>
+      <c r="N99" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>740</v>
       </c>
@@ -10974,8 +11775,14 @@
       <c r="I100" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>45.9</v>
+      </c>
+      <c r="L100">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>912</v>
       </c>
@@ -11003,8 +11810,14 @@
       <c r="I101" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>32.1</v>
+      </c>
+      <c r="L101">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>925</v>
       </c>
@@ -11032,8 +11845,20 @@
       <c r="I102" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>10.6</v>
+      </c>
+      <c r="K102">
+        <v>10.3</v>
+      </c>
+      <c r="L102">
+        <v>0.6</v>
+      </c>
+      <c r="M102">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>927</v>
       </c>
@@ -11061,8 +11886,14 @@
       <c r="I103" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>10.4</v>
+      </c>
+      <c r="L103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>930</v>
       </c>
@@ -11090,8 +11921,14 @@
       <c r="I104" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>10.7</v>
+      </c>
+      <c r="L104">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>931</v>
       </c>
@@ -11119,8 +11956,14 @@
       <c r="I105" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>11.6</v>
+      </c>
+      <c r="L105">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>961</v>
       </c>
@@ -11148,8 +11991,14 @@
       <c r="I106" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>14.7</v>
+      </c>
+      <c r="L106">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>969</v>
       </c>
@@ -11177,8 +12026,14 @@
       <c r="I107" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>16.8</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>973</v>
       </c>
@@ -11206,8 +12061,20 @@
       <c r="I108" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>75.8</v>
+      </c>
+      <c r="K108">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L108">
+        <v>2.7</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>988</v>
       </c>
@@ -11235,8 +12102,14 @@
       <c r="I109" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>88</v>
+      </c>
+      <c r="L109">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>997</v>
       </c>
@@ -11264,8 +12137,20 @@
       <c r="I110" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>137</v>
+      </c>
+      <c r="K110">
+        <v>123</v>
+      </c>
+      <c r="L110">
+        <v>0.8</v>
+      </c>
+      <c r="M110">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1035</v>
       </c>
@@ -11293,8 +12178,20 @@
       <c r="I111" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>11.7</v>
+      </c>
+      <c r="K111">
+        <v>11.1</v>
+      </c>
+      <c r="L111">
+        <v>0.8</v>
+      </c>
+      <c r="M111">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1038</v>
       </c>
@@ -11322,8 +12219,17 @@
       <c r="I112" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L112">
+        <v>0.8</v>
+      </c>
+      <c r="N112" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1054</v>
       </c>
@@ -11351,8 +12257,11 @@
       <c r="I113" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1057</v>
       </c>
@@ -11380,8 +12289,14 @@
       <c r="I114" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>8.1</v>
+      </c>
+      <c r="L114">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1102</v>
       </c>
@@ -11409,8 +12324,20 @@
       <c r="I115" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>6.3</v>
+      </c>
+      <c r="K115">
+        <v>6.1</v>
+      </c>
+      <c r="L115">
+        <v>0.1</v>
+      </c>
+      <c r="M115">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1103</v>
       </c>
@@ -11438,8 +12365,20 @@
       <c r="I116" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>6.5</v>
+      </c>
+      <c r="K116">
+        <v>5.9</v>
+      </c>
+      <c r="L116">
+        <v>0.3</v>
+      </c>
+      <c r="M116">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1134</v>
       </c>
@@ -11467,8 +12406,20 @@
       <c r="I117" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>25.8</v>
+      </c>
+      <c r="K117">
+        <v>27.1</v>
+      </c>
+      <c r="L117">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M117">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1136</v>
       </c>
@@ -11496,8 +12447,14 @@
       <c r="I118" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1144</v>
       </c>
@@ -11525,8 +12482,14 @@
       <c r="I119" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>31.9</v>
+      </c>
+      <c r="L119">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1164</v>
       </c>
@@ -11554,8 +12517,23 @@
       <c r="I120" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K120">
+        <v>80.3</v>
+      </c>
+      <c r="L120">
+        <v>6.3</v>
+      </c>
+      <c r="M120">
+        <v>6.1</v>
+      </c>
+      <c r="N120" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1219</v>
       </c>
@@ -11583,8 +12561,20 @@
       <c r="I121" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>60.1</v>
+      </c>
+      <c r="K121">
+        <v>59</v>
+      </c>
+      <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1222</v>
       </c>
@@ -11612,8 +12602,14 @@
       <c r="I122" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>56.4</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1229</v>
       </c>
@@ -11641,8 +12637,14 @@
       <c r="I123" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>23.3</v>
+      </c>
+      <c r="N123" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1240</v>
       </c>
@@ -11670,8 +12672,20 @@
       <c r="I124" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>26</v>
+      </c>
+      <c r="K124">
+        <v>24.4</v>
+      </c>
+      <c r="L124">
+        <v>1.3</v>
+      </c>
+      <c r="M124">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1321</v>
       </c>
@@ -11699,8 +12713,11 @@
       <c r="I125" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1323</v>
       </c>
@@ -11728,8 +12745,14 @@
       <c r="I126" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L126">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1326</v>
       </c>
@@ -11757,8 +12780,14 @@
       <c r="I127" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>24.4</v>
+      </c>
+      <c r="L127">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1328</v>
       </c>
@@ -11786,8 +12815,17 @@
       <c r="I128" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>29.4</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1335</v>
       </c>
@@ -11815,8 +12853,20 @@
       <c r="I129" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>19.3</v>
+      </c>
+      <c r="K129">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1359</v>
       </c>
@@ -11844,8 +12894,11 @@
       <c r="I130" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1387</v>
       </c>
@@ -11873,8 +12926,17 @@
       <c r="I131" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>16.3</v>
+      </c>
+      <c r="L131">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N131" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1396</v>
       </c>
@@ -11902,8 +12964,17 @@
       <c r="I132" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>8.9</v>
+      </c>
+      <c r="L132">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N132" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1404</v>
       </c>
@@ -11931,8 +13002,17 @@
       <c r="I133" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>10.4</v>
+      </c>
+      <c r="L133">
+        <v>1.2</v>
+      </c>
+      <c r="N133" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1413</v>
       </c>
@@ -11960,8 +13040,20 @@
       <c r="I134" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>8.4</v>
+      </c>
+      <c r="K134">
+        <v>8.1</v>
+      </c>
+      <c r="L134">
+        <v>0.6</v>
+      </c>
+      <c r="M134">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1435</v>
       </c>
@@ -11989,8 +13081,23 @@
       <c r="I135" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>9.1</v>
+      </c>
+      <c r="K135">
+        <v>8.6</v>
+      </c>
+      <c r="L135">
+        <v>0.7</v>
+      </c>
+      <c r="M135">
+        <v>0.7</v>
+      </c>
+      <c r="N135" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1446</v>
       </c>
@@ -12018,8 +13125,17 @@
       <c r="I136" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>7.2</v>
+      </c>
+      <c r="L136">
+        <v>0.4</v>
+      </c>
+      <c r="N136" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1070</v>
       </c>
@@ -12047,8 +13163,17 @@
       <c r="I137" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K137">
+        <v>7.7</v>
+      </c>
+      <c r="N137" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1378</v>
       </c>
@@ -12076,8 +13201,20 @@
       <c r="I138" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>63.4</v>
+      </c>
+      <c r="K138">
+        <v>55.2</v>
+      </c>
+      <c r="L138">
+        <v>2.4</v>
+      </c>
+      <c r="M138">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1184</v>
       </c>
@@ -12105,8 +13242,11 @@
       <c r="I139" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>612</v>
       </c>
@@ -12134,8 +13274,11 @@
       <c r="I140" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>739</v>
       </c>
@@ -12163,8 +13306,17 @@
       <c r="I141" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>50.3</v>
+      </c>
+      <c r="K141">
+        <v>4.3</v>
+      </c>
+      <c r="N141" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>885</v>
       </c>
@@ -12192,8 +13344,14 @@
       <c r="I142" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>32.1</v>
+      </c>
+      <c r="L142">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1318</v>
       </c>
@@ -12221,8 +13379,20 @@
       <c r="I143" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>14.8</v>
+      </c>
+      <c r="K143">
+        <v>13.9</v>
+      </c>
+      <c r="L143">
+        <v>0.8</v>
+      </c>
+      <c r="N143" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1324</v>
       </c>
@@ -12250,8 +13420,14 @@
       <c r="I144" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L144">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1468</v>
       </c>
@@ -12279,8 +13455,11 @@
       <c r="I145" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>232</v>
       </c>
@@ -12308,8 +13487,20 @@
       <c r="I146" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>2.9</v>
+      </c>
+      <c r="K146">
+        <v>3.3</v>
+      </c>
+      <c r="L146">
+        <v>0.2</v>
+      </c>
+      <c r="M146">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>962</v>
       </c>
@@ -12337,8 +13528,11 @@
       <c r="I147" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>966</v>
       </c>
@@ -12366,8 +13560,14 @@
       <c r="I148" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>11.5</v>
+      </c>
+      <c r="L148">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1402</v>
       </c>
@@ -12395,8 +13595,11 @@
       <c r="I149" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1405</v>
       </c>
@@ -12424,8 +13627,20 @@
       <c r="I150" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>12</v>
+      </c>
+      <c r="K150">
+        <v>11.5</v>
+      </c>
+      <c r="L150">
+        <v>0.7</v>
+      </c>
+      <c r="M150">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1415</v>
       </c>
@@ -12453,8 +13668,23 @@
       <c r="I151" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>10.3</v>
+      </c>
+      <c r="K151">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L151">
+        <v>0.6</v>
+      </c>
+      <c r="M151">
+        <v>0.6</v>
+      </c>
+      <c r="N151" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>743</v>
       </c>
@@ -12483,7 +13713,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1021</v>
       </c>
@@ -12512,7 +13742,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1067</v>
       </c>
@@ -12541,7 +13771,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1392</v>
       </c>
@@ -12570,7 +13800,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>109</v>
       </c>
@@ -12599,7 +13829,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1329</v>
       </c>
@@ -12628,7 +13858,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1424</v>
       </c>
@@ -12657,7 +13887,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>654</v>
       </c>
@@ -12686,7 +13916,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1419</v>
       </c>
